--- a/2/setosa_sepal_length_x.xlsx
+++ b/2/setosa_sepal_length_x.xlsx
@@ -366,22 +366,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="6">
@@ -391,77 +391,77 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>

--- a/2/setosa_sepal_length_x.xlsx
+++ b/2/setosa_sepal_length_x.xlsx
@@ -366,7 +366,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="3">
@@ -381,7 +381,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
@@ -391,32 +391,32 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -426,22 +426,22 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -451,12 +451,12 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="21">
